--- a/APM files/133768555/133768555 IMPORT 4 remove Stop-Sell.xlsx
+++ b/APM files/133768555/133768555 IMPORT 4 remove Stop-Sell.xlsx
@@ -1,37 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/133768555/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AE5CBD-39EE-3646-BC54-D92894D307AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="15200" yWindow="3620" windowWidth="32320" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="5">
+  <si>
+    <t>Hotel ID</t>
+  </si>
+  <si>
+    <t>Stop Sell Property</t>
+  </si>
+  <si>
+    <t>Action Type</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +72,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,47 +396,1003 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Hotel ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Stop Sell Property</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Action Type</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Update</t>
-        </is>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>19449216</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>19449251</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>19449267</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>19449271</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>19449272</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>19449273</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>19449279</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>19449314</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>19928948</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>19928950</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>32835832</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>32835914</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>32835932</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>32835938</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>35152875</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>37275738</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>38931699</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>38932056</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>38932158</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>38932222</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>38932224</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>39312641</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>41373661</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>44147225</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>44147309</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>58969672</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>63847591</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>65697896</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>65700124</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>67417708</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>69552526</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>69916862</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>70029568</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>70441967</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>70863418</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>71197178</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>71199704</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>71734122</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>73484998</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>75199839</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>75586714</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>75626088</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>75979521</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>76349447</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>76505079</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>76518146</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>76594196</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>76862563</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>76944992</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>77980753</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>78275671</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>78471516</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>78637475</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>78778989</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>82941888</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>83006643</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>83209715</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>83920154</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>83952690</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>85470684</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>85471462</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>86135980</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>86175994</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>89035000</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>89474408</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>89590411</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>89829549</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>90246790</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>90824919</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>91858895</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>92042010</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>92164500</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>92166058</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>93824411</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>95482616</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>95739379</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>95984850</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>96056210</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>98533425</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>99222672</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>99497628</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>100148968</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>100233905</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>100234155</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>100482272</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>100517432</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>101056026</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>101741477</v>
+      </c>
+      <c r="B89" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>102341037</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
